--- a/biology/Botanique/Jonagold/Jonagold.xlsx
+++ b/biology/Botanique/Jonagold/Jonagold.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Jonagold est le nom d'un cultivar de pommier, Malus pumila 'Jonagold'.
 </t>
@@ -511,50 +523,55 @@
           <t>Origine</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Le fruit a été créé aux États-Unis en 1953 à Geneva, dans l'état de New York, par la station expérimentale d'agriculture et sciences de la vie de l'université de Cornell ((en) :  New York State Agricultural Experiment Station of Cornell University's College of Agriculture and Life Sciences). C'est un croisement entre la croquante Golden Delicious et la Jonathan, rouge-cramoisi[1].
-La Jonagored, une mutation de Jonagold, a été protégée par un brevet des États-Unis (Patent PP05937)[2], aujourd'hui expiré.
-Parenté
-Mutants : 
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le fruit a été créé aux États-Unis en 1953 à Geneva, dans l'état de New York, par la station expérimentale d'agriculture et sciences de la vie de l'université de Cornell ((en) :  New York State Agricultural Experiment Station of Cornell University's College of Agriculture and Life Sciences). C'est un croisement entre la croquante Golden Delicious et la Jonathan, rouge-cramoisi.
+La Jonagored, une mutation de Jonagold, a été protégée par un brevet des États-Unis (Patent PP05937), aujourd'hui expiré.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Jonagold</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Jonagold</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Origine</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Parenté</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Mutants : 
 Rubinstar : coloration plus rouge de l'épiderme.
 Descendants :
 Shinano Sweet, croisement de Fuji x Jonagold.</t>
         </is>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Jonagold</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>Portail:Botanique/Articles liés</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Jonagold</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>Description</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">C'est une pomme calvilliforme[Note 1], triploïde, à peau moyennement fine, grosse et parfumée. Sa chair est mi-ferme, très rouge avec des taches vertes proches de la tige. Cette pomme juteuse a un goût sucré et légèrement acidulé, très agréable.
-La couleur de la peau peut parfois virer au rouge (voire rouge cramoisi) ou au vert total[1]. Le fruit est gros, jaune strié rouge, la variété est souvent recommandée pour l'horticulture[3], même si elle est signalée sensible à l'oïdium[4]. 
-</t>
-        </is>
-      </c>
-    </row>
     <row r="5">
       <c r="A5" s="1" t="n">
         <v>3</v>
@@ -576,12 +593,15 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Utilisation</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Elle est consommée crue en fruit de table, cuite (tartes, etc.)[5], on l'emploie souvent pour le crumble aux pommes (apple crisp) une confection d'avoine, de cassonade, de cannelle, de pommes, et de beurre cuit au four et servi avec de la glace à la vanille[6]. 
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">C'est une pomme calvilliforme[Note 1], triploïde, à peau moyennement fine, grosse et parfumée. Sa chair est mi-ferme, très rouge avec des taches vertes proches de la tige. Cette pomme juteuse a un goût sucré et légèrement acidulé, très agréable.
+La couleur de la peau peut parfois virer au rouge (voire rouge cramoisi) ou au vert total. Le fruit est gros, jaune strié rouge, la variété est souvent recommandée pour l'horticulture, même si elle est signalée sensible à l'oïdium. 
 </t>
         </is>
       </c>
@@ -607,10 +627,45 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
+          <t>Utilisation</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Elle est consommée crue en fruit de table, cuite (tartes, etc.), on l'emploie souvent pour le crumble aux pommes (apple crisp) une confection d'avoine, de cassonade, de cannelle, de pommes, et de beurre cuit au four et servi avec de la glace à la vanille. 
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Jonagold</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Jonagold</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
           <t>Pollinisation</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">Pollinisation : Jonagold est une variété triploïde. Elle a donc besoin d'un second type de pommier pour être fécondée et se trouve incapable de fournir du pollen valable pour d'autres arbres.
 Groupe de floraison: D (tardive).
@@ -621,36 +676,73 @@
         </is>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>Jonagold</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>Portail:Botanique/Articles liés</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Jonagold</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Jonagold</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Jonagold</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
         <is>
           <t>Culture</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t xml:space="preserve">De croissance vigoureuse, l'arbre nécessite toutefois des rabattements périodiques sur bourgeons axillaires pour relancer la vigueur de croissance.
-La maturité s'étale de mi-août à octobre suivant les porte-greffes, les lieux et les conditions climatiques (ce pommier craint les climats chauds[4]).
-Susceptibilités aux maladies
-Tavelure : élevée[7].
+La maturité s'étale de mi-août à octobre suivant les porte-greffes, les lieux et les conditions climatiques (ce pommier craint les climats chauds).
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Jonagold</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Jonagold</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Culture</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Susceptibilités aux maladies</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Tavelure : élevée.
 Oïdium : faible.
 Rouille : élevée.
 Feu bactérien : élevée.
@@ -659,33 +751,35 @@
         </is>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>Jonagold</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>Portail:Botanique/Articles liés</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Jonagold</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Jonagold</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Jonagold</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
         <is>
           <t>Production</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La Belgique, où cette variété est cultivée depuis le début des années 1980, est le principal producteur européen de Jonagold[8],[1]. Ce cultivar figure dans le classement des quinze variétés les plus cultivées aux États-Unis[1].
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La Belgique, où cette variété est cultivée depuis le début des années 1980, est le principal producteur européen de Jonagold,. Ce cultivar figure dans le classement des quinze variétés les plus cultivées aux États-Unis.
 </t>
         </is>
       </c>
